--- a/src/com/e3ps/part/bom/column/bom_list.xlsx
+++ b/src/com/e3ps/part/bom/column/bom_list.xlsx
@@ -491,11 +491,12 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="3" width="5.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>

--- a/src/com/e3ps/part/bom/column/bom_list.xlsx
+++ b/src/com/e3ps/part/bom/column/bom_list.xlsx
@@ -491,12 +491,12 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="5.625" customWidth="1"/>
+    <col min="2" max="3" width="4.75" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
